--- a/APM files/141324899/141324899 IMPORT 1 Promotion Basic MOD Evergreen.xlsx
+++ b/APM files/141324899/141324899 IMPORT 1 Promotion Basic MOD Evergreen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141324899/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCA321-CEB1-3440-AE71-6F67E3C221C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B13D68-29BF-E442-BA4F-F04D4CDC2EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D2A981-B9B1-4E39-97C9-254867A09CDC}">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
